--- a/public_html/Identification_Keys/Python/TomBongers/Bongers_KEY TO THE FAMILIES_females.xlsx
+++ b/public_html/Identification_Keys/Python/TomBongers/Bongers_KEY TO THE FAMILIES_females.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\var\www\WKW\public_html\Identification_Keys\Python\TomBongers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7693E8D0-A4E2-4051-8D70-9B12C54BD3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027DD114-37A0-4344-8E45-40AF9464D30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="1035" windowWidth="23190" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35805" yWindow="1245" windowWidth="23190" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BongersKeys_001" sheetId="1" r:id="rId1"/>
@@ -2346,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E819"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
